--- a/data/trans_bre/P2_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P2_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -641,47 +673,67 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-3,0</t>
+          <t>-2,83</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-6,48</t>
+          <t>-6,13</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-11,68</t>
+          <t>-11,6</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,77</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>4,78</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-3,46</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>-2,39%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-3,1%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-7,01%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-12,83%</t>
+          <t>-2,94%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>5,33%</t>
+          <t>-6,64%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-12,72%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-1,29%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>5,34%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-3,6%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,8; 3,1</t>
+          <t>-10,4; 2,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,95; 1,47</t>
+          <t>-8,11; 2,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-14,95; 0,62</t>
+          <t>-14,02; 0,89</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-20,84; -2,68</t>
+          <t>-21,01; -2,73</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 14,65</t>
+          <t>-9,66; 7,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-11,35; 3,28</t>
+          <t>-2,17; 14,65</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-8,24; 1,54</t>
+          <t>-9,84; 3,61</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-16,06; 0,62</t>
+          <t>-10,71; 2,83</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-22,44; -3,16</t>
+          <t>-8,45; 2,35</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 18,35</t>
+          <t>-14,78; 0,9</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-22,41; -3,0</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-10,4; 9,19</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-2,3; 18,29</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-10,05; 3,89</t>
         </is>
       </c>
     </row>
@@ -761,47 +833,67 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,73</t>
+          <t>5,07</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,85</t>
+          <t>2,6</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,84</t>
+          <t>6,34</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>-0,55</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>-0,24</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>6,13</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>0,18%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>5,33%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>2,01%</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>6,66%</t>
+          <t>5,77%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-0,27%</t>
+          <t>2,84%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>7,28%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-0,58%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-0,26%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>6,74%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 4,53</t>
+          <t>-4,8; 4,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 16,4</t>
+          <t>-1,66; 19,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 11,43</t>
+          <t>-2,77; 15,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 20,8</t>
+          <t>0,33; 21,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-8,31; 6,6</t>
+          <t>-6,04; 4,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 4,88</t>
+          <t>-8,21; 7,12</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 20,61</t>
+          <t>0,51; 12,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 13,64</t>
+          <t>-4,99; 5,03</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 27,74</t>
+          <t>-1,8; 26,59</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-8,85; 7,72</t>
+          <t>-2,9; 18,96</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0,31; 28,92</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-6,21; 5,49</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-8,75; 8,29</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>0,63; 15,49</t>
         </is>
       </c>
     </row>
@@ -881,47 +993,67 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,04</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,95</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,14</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>-3,39</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,99%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,22%</t>
+          <t>-0,81%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
+          <t>-1,39%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0,04%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1,06%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
           <t>-1,18%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-3,51%</t>
         </is>
       </c>
     </row>
@@ -934,52 +1066,72 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 5,19</t>
+          <t>-2,24; 5,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 12,92</t>
+          <t>-5,08; 3,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 2,77</t>
+          <t>-4,35; 2,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 3,41</t>
+          <t>-3,23; 3,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 1,81</t>
+          <t>-1,5; 4,27</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 5,64</t>
+          <t>-4,19; 2,31</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 15,72</t>
+          <t>-7,7; 0,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 2,97</t>
+          <t>-2,32; 5,52</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 3,69</t>
+          <t>-5,27; 3,64</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 1,88</t>
+          <t>-4,43; 2,25</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-3,35; 3,51</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-1,52; 4,49</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-4,24; 2,42</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-7,89; 0,67</t>
         </is>
       </c>
     </row>
@@ -1001,47 +1153,67 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,7</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>-0,34</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>-0,24</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>2,28</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>2,97%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-1,79%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>0,66%</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>-0,61%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
+          <t>0,9%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,45%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-0,35%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
           <t>-0,25%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>2,4%</t>
         </is>
       </c>
     </row>
@@ -1054,52 +1226,72 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 6,04</t>
+          <t>0,06; 6,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 2,43</t>
+          <t>-4,37; 3,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 4,18</t>
+          <t>-2,16; 3,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 3,53</t>
+          <t>-2,29; 2,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 2,49</t>
+          <t>-4,15; 2,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 6,65</t>
+          <t>-3,01; 2,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 2,6</t>
+          <t>-1,13; 6,41</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 4,51</t>
+          <t>0,07; 7,03</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 3,77</t>
+          <t>-4,56; 3,4</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 2,57</t>
+          <t>-2,21; 4,16</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-2,35; 3,12</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-4,21; 2,19</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-3,06; 2,9</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-1,17; 7,08</t>
         </is>
       </c>
     </row>
@@ -1121,47 +1313,67 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,11</t>
+          <t>-2,59</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,18</t>
+          <t>-1,3</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,75</t>
+          <t>-1,99</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>0,4</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,94</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>-4,43%</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-2,17%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-1,22%</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-1,82%</t>
+          <t>-2,66%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
+          <t>-1,36%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-2,07%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-0,39%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
           <t>0,42%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>0,98%</t>
         </is>
       </c>
     </row>
@@ -1174,52 +1386,72 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,05; -1,43</t>
+          <t>-8,15; -1,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 1,31</t>
+          <t>-6,73; 0,91</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 2,74</t>
+          <t>-5,33; 2,26</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 2,23</t>
+          <t>-6,0; 1,61</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 4,38</t>
+          <t>-8,48; 3,75</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,16; -1,49</t>
+          <t>-2,85; 4,92</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,82; 1,38</t>
+          <t>-2,94; 4,83</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 2,93</t>
+          <t>-8,27; -1,6</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 2,38</t>
+          <t>-6,85; 0,95</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 4,68</t>
+          <t>-5,49; 2,37</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-6,18; 1,71</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-8,79; 3,97</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-2,89; 5,25</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-3,0; 5,24</t>
         </is>
       </c>
     </row>
@@ -1241,47 +1473,67 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-3,75</t>
+          <t>-4,06</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-3,54</t>
+          <t>-2,63</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-7,74</t>
+          <t>-4,95</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>-3,15</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>-0,13</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1,53</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>1,64%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-3,88%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-3,7%</t>
-        </is>
-      </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-7,96%</t>
+          <t>-4,19%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>-0,13%</t>
+          <t>-2,74%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-5,1%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-3,26%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-0,14%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>1,66%</t>
         </is>
       </c>
     </row>
@@ -1294,52 +1546,72 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 6,0</t>
+          <t>-2,31; 6,21</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-8,89; 0,73</t>
+          <t>-8,84; -0,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-13,0; 2,09</t>
+          <t>-9,25; 2,82</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-27,7; -0,6</t>
+          <t>-15,99; -0,79</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 3,76</t>
+          <t>-7,91; 1,55</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 6,62</t>
+          <t>-4,82; 3,88</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-9,08; 0,76</t>
+          <t>-4,71; 8,1</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-13,53; 2,14</t>
+          <t>-2,42; 6,85</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-28,87; -0,62</t>
+          <t>-9,15; -0,06</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 4,0</t>
+          <t>-9,68; 2,97</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-16,55; -0,82</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-8,09; 1,57</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-4,9; 4,11</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-4,87; 9,27</t>
         </is>
       </c>
     </row>
@@ -1361,47 +1633,67 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,49</t>
+          <t>-0,87</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,44</t>
+          <t>-1,16</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-2,09</t>
+          <t>-1,56</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>-0,7</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
+          <t>0,51</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0,58</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
           <t>0,2%</t>
         </is>
       </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>-0,52%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>-1,52%</t>
-        </is>
-      </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-2,23%</t>
+          <t>-0,91%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
+          <t>-1,22%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-1,66%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-0,73%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
           <t>0,54%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>0,61%</t>
         </is>
       </c>
     </row>
@@ -1414,66 +1706,93 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 1,87</t>
+          <t>-1,79; 1,68</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 3,06</t>
+          <t>-2,7; 1,85</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 0,78</t>
+          <t>-3,32; 1,14</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 0,85</t>
+          <t>-4,17; 1,31</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 2,32</t>
+          <t>-2,65; 1,43</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 1,98</t>
+          <t>-1,62; 2,72</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 3,29</t>
+          <t>-1,49; 2,66</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 0,83</t>
+          <t>-1,85; 1,81</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 0,9</t>
+          <t>-2,82; 1,98</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 2,5</t>
+          <t>-3,48; 1,22</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-4,41; 1,42</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-2,72; 1,51</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-1,67; 2,96</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-1,56; 2,86</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
